--- a/StructureDefinition-mp4p-organization.xlsx
+++ b/StructureDefinition-mp4p-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-05T14:37:11+00:00</t>
+    <t>2022-01-05T14:53:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-mp4p-organization.xlsx
+++ b/StructureDefinition-mp4p-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-05T14:53:01+00:00</t>
+    <t>2022-05-24T10:16:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-mp4p-organization.xlsx
+++ b/StructureDefinition-mp4p-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-24T10:16:42+00:00</t>
+    <t>2022-09-05T15:28:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-mp4p-organization.xlsx
+++ b/StructureDefinition-mp4p-organization.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3075" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3075" uniqueCount="575">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-05T15:28:19+00:00</t>
+    <t>2022-11-28T18:22:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -258,10 +258,6 @@
     <t>A formally or informally recognized grouping of people or organizations formed for the purpose of achieving some form of collective action.  Includes companies, institutions, corporations, departments, community groups, healthcare practice groups, payer/insurer, etc.</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}org-1:The organization SHALL at least have a name or an identifier, and possibly more than one {(identifier.count() + name.count()) &gt; 0}</t>
-  </si>
-  <si>
     <t>(also see master files messages)</t>
   </si>
   <si>
@@ -275,47 +271,51 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>Organization.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta
+</t>
+  </si>
+  <si>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>Organization.meta.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
 </t>
   </si>
   <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>Organization.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta
-</t>
-  </si>
-  <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>Organization.meta.id</t>
-  </si>
-  <si>
     <t>Unique id for inter-element referencing</t>
   </si>
   <si>
@@ -366,10 +366,6 @@
   </si>
   <si>
     <t>Organization.meta.versionId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id
-</t>
   </si>
   <si>
     <t>Version specific identifier</t>
@@ -1054,10 +1050,6 @@
   <si>
     <t xml:space="preserve">org-3
 </t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-org-3:The telecom of an organization can never be of use 'home' {where(use = 'home').empty()}</t>
   </si>
   <si>
     <t>ORC-22?</t>
@@ -2170,42 +2162,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="37.4375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="31.5859375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="37.44140625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="31.58984375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="81.66015625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.61328125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="51.0" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="107.39453125" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="107.3984375" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="143.74609375" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="218.1953125" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
@@ -2428,13 +2420,13 @@
         <v>75</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="AK2" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AL2" t="s" s="2">
         <v>28</v>
@@ -2448,7 +2440,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -2459,28 +2451,28 @@
         <v>76</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G3" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="H3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>89</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -2530,13 +2522,13 @@
         <v>75</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>75</v>
@@ -2562,7 +2554,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -2573,25 +2565,25 @@
         <v>76</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G4" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="H4" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J4" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2642,19 +2634,19 @@
         <v>75</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>96</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>75</v>
@@ -2674,7 +2666,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2685,7 +2677,7 @@
         <v>76</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>75</v>
@@ -2697,7 +2689,7 @@
         <v>75</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="K5" t="s" s="2">
         <v>98</v>
@@ -2760,7 +2752,7 @@
         <v>76</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>75</v>
@@ -2911,28 +2903,28 @@
         <v>76</v>
       </c>
       <c r="F7" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I7" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I7" t="s" s="2">
+      <c r="J7" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="J7" t="s" s="2">
+      <c r="K7" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2982,19 +2974,19 @@
         <v>75</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>75</v>
@@ -3014,7 +3006,7 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -3025,28 +3017,28 @@
         <v>76</v>
       </c>
       <c r="F8" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I8" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I8" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J8" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>122</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -3096,19 +3088,19 @@
         <v>75</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>75</v>
@@ -3128,7 +3120,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -3139,28 +3131,28 @@
         <v>76</v>
       </c>
       <c r="F9" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I9" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I9" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J9" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -3210,19 +3202,19 @@
         <v>75</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>75</v>
@@ -3242,7 +3234,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -3256,25 +3248,25 @@
         <v>77</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="K10" t="s" s="2">
+      <c r="L10" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
         <v>134</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>135</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -3324,7 +3316,7 @@
         <v>75</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>76</v>
@@ -3336,7 +3328,7 @@
         <v>75</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>75</v>
@@ -3356,7 +3348,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -3376,19 +3368,19 @@
         <v>75</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
@@ -3414,31 +3406,31 @@
         <v>75</v>
       </c>
       <c r="W11" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="X11" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="X11" t="s" s="2">
+      <c r="Y11" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="Y11" t="s" s="2">
+      <c r="Z11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE11" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="Z11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>76</v>
@@ -3450,7 +3442,7 @@
         <v>75</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>75</v>
@@ -3470,7 +3462,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -3490,19 +3482,19 @@
         <v>75</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -3528,31 +3520,31 @@
         <v>75</v>
       </c>
       <c r="W12" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="X12" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="X12" t="s" s="2">
+      <c r="Y12" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="Y12" t="s" s="2">
+      <c r="Z12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE12" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>153</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>76</v>
@@ -3564,7 +3556,7 @@
         <v>75</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>75</v>
@@ -3584,7 +3576,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3595,28 +3587,28 @@
         <v>76</v>
       </c>
       <c r="F13" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H13" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H13" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="I13" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3666,19 +3658,19 @@
         <v>75</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>75</v>
@@ -3698,7 +3690,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3709,11 +3701,11 @@
         <v>76</v>
       </c>
       <c r="F14" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G14" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G14" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="H14" t="s" s="2">
         <v>75</v>
       </c>
@@ -3721,16 +3713,16 @@
         <v>75</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -3756,43 +3748,43 @@
         <v>75</v>
       </c>
       <c r="W14" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="X14" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="X14" t="s" s="2">
+      <c r="Y14" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="Y14" t="s" s="2">
+      <c r="Z14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE14" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="Z14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>167</v>
-      </c>
       <c r="AF14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>75</v>
@@ -3812,18 +3804,18 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>75</v>
@@ -3835,16 +3827,16 @@
         <v>75</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3894,25 +3886,25 @@
         <v>75</v>
       </c>
       <c r="AE15" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>75</v>
@@ -3926,11 +3918,11 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3949,16 +3941,16 @@
         <v>75</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -4008,7 +4000,7 @@
         <v>75</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>76</v>
@@ -4026,7 +4018,7 @@
         <v>75</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>75</v>
@@ -4040,7 +4032,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -4069,7 +4061,7 @@
         <v>105</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M17" t="s" s="2">
         <v>107</v>
@@ -4122,7 +4114,7 @@
         <v>75</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>76</v>
@@ -4140,7 +4132,7 @@
         <v>75</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>75</v>
@@ -4154,7 +4146,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -4171,7 +4163,7 @@
         <v>75</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>75</v>
@@ -4180,16 +4172,16 @@
         <v>104</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="M18" t="s" s="2">
         <v>107</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>75</v>
@@ -4238,7 +4230,7 @@
         <v>75</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>76</v>
@@ -4256,7 +4248,7 @@
         <v>75</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>75</v>
@@ -4270,7 +4262,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4278,32 +4270,32 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>75</v>
@@ -4340,7 +4332,7 @@
         <v>75</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AB19" s="2"/>
       <c r="AC19" t="s" s="2">
@@ -4350,7 +4342,7 @@
         <v>110</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>76</v>
@@ -4359,22 +4351,22 @@
         <v>77</v>
       </c>
       <c r="AH19" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="AI19" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
+      <c r="AK19" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="AK19" t="s" s="2">
+      <c r="AL19" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>75</v>
@@ -4382,10 +4374,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>75</v>
@@ -4395,11 +4387,11 @@
         <v>76</v>
       </c>
       <c r="F20" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G20" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G20" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="H20" t="s" s="2">
         <v>75</v>
       </c>
@@ -4407,17 +4399,17 @@
         <v>75</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>75</v>
@@ -4427,7 +4419,7 @@
         <v>75</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="S20" t="s" s="2">
         <v>75</v>
@@ -4466,7 +4458,7 @@
         <v>75</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>76</v>
@@ -4475,19 +4467,19 @@
         <v>77</v>
       </c>
       <c r="AH20" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AI20" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
+      <c r="AK20" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="AK20" t="s" s="2">
+      <c r="AL20" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>75</v>
@@ -4498,7 +4490,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4509,7 +4501,7 @@
         <v>76</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>75</v>
@@ -4521,7 +4513,7 @@
         <v>75</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="K21" t="s" s="2">
         <v>98</v>
@@ -4584,7 +4576,7 @@
         <v>76</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>75</v>
@@ -4610,7 +4602,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4701,7 +4693,7 @@
         <v>77</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>112</v>
@@ -4710,7 +4702,7 @@
         <v>75</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>75</v>
@@ -4724,7 +4716,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4732,101 +4724,101 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F23" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G23" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="F23" t="s" s="2">
+      <c r="H23" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G23" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H23" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="I23" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="R23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W23" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="R23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W23" t="s" s="2">
+      <c r="X23" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="X23" t="s" s="2">
+      <c r="Y23" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="Y23" t="s" s="2">
+      <c r="Z23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE23" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="Z23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE23" t="s" s="2">
+      <c r="AF23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AK23" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>75</v>
@@ -4840,7 +4832,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4848,34 +4840,34 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F24" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G24" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="F24" t="s" s="2">
+      <c r="H24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I24" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G24" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J24" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>75</v>
@@ -4885,64 +4877,64 @@
         <v>75</v>
       </c>
       <c r="R24" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="S24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="X24" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="S24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W24" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="X24" t="s" s="2">
+      <c r="Y24" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="Y24" t="s" s="2">
+      <c r="Z24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE24" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="Z24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE24" t="s" s="2">
+      <c r="AF24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="AF24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>235</v>
-      </c>
       <c r="AK24" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>75</v>
@@ -4956,7 +4948,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4964,104 +4956,104 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F25" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G25" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="F25" t="s" s="2">
+      <c r="H25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I25" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G25" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J25" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="R25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S25" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="R25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S25" t="s" s="2">
+      <c r="T25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE25" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="T25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE25" t="s" s="2">
+      <c r="AF25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="AF25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
+      <c r="AK25" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="AK25" t="s" s="2">
+      <c r="AL25" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>75</v>
@@ -5072,7 +5064,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5080,31 +5072,31 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F26" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G26" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="F26" t="s" s="2">
+      <c r="H26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I26" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G26" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J26" t="s" s="2">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -5118,75 +5110,75 @@
         <v>75</v>
       </c>
       <c r="S26" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="T26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE26" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="T26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE26" t="s" s="2">
+      <c r="AF26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AI26" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="AF26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="AI26" t="s" s="2">
+      <c r="AJ26" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="AJ26" t="s" s="2">
+      <c r="AK26" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="AK26" t="s" s="2">
+      <c r="AL26" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="AL26" t="s" s="2">
+      <c r="AM26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN26" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>257</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5197,28 +5189,28 @@
         <v>76</v>
       </c>
       <c r="F27" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I27" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J27" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -5268,28 +5260,28 @@
         <v>75</v>
       </c>
       <c r="AE27" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AI27" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="AF27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="AI27" t="s" s="2">
+      <c r="AJ27" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="AJ27" t="s" s="2">
+      <c r="AK27" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="AK27" t="s" s="2">
+      <c r="AL27" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>75</v>
@@ -5300,7 +5292,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5311,28 +5303,28 @@
         <v>76</v>
       </c>
       <c r="F28" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I28" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G28" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H28" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J28" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -5382,28 +5374,28 @@
         <v>75</v>
       </c>
       <c r="AE28" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AI28" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="AF28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="AI28" t="s" s="2">
+      <c r="AJ28" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="AJ28" t="s" s="2">
+      <c r="AK28" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="AK28" t="s" s="2">
+      <c r="AL28" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>75</v>
@@ -5414,10 +5406,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C29" t="s" s="2">
         <v>75</v>
@@ -5427,29 +5419,29 @@
         <v>76</v>
       </c>
       <c r="F29" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G29" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G29" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="H29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>75</v>
@@ -5459,7 +5451,7 @@
         <v>75</v>
       </c>
       <c r="R29" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="S29" t="s" s="2">
         <v>75</v>
@@ -5498,7 +5490,7 @@
         <v>75</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>76</v>
@@ -5507,22 +5499,22 @@
         <v>77</v>
       </c>
       <c r="AH29" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="AI29" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
+      <c r="AK29" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="AK29" t="s" s="2">
+      <c r="AL29" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>75</v>
@@ -5530,7 +5522,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5541,7 +5533,7 @@
         <v>76</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>75</v>
@@ -5553,7 +5545,7 @@
         <v>75</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="K30" t="s" s="2">
         <v>98</v>
@@ -5616,7 +5608,7 @@
         <v>76</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>75</v>
@@ -5642,7 +5634,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5756,7 +5748,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5764,34 +5756,34 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F32" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G32" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="F32" t="s" s="2">
+      <c r="H32" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G32" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H32" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="I32" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>75</v>
@@ -5801,64 +5793,64 @@
         <v>75</v>
       </c>
       <c r="R32" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="S32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W32" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="S32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W32" t="s" s="2">
+      <c r="X32" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="X32" t="s" s="2">
+      <c r="Y32" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="Y32" t="s" s="2">
+      <c r="Z32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE32" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="Z32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE32" t="s" s="2">
+      <c r="AF32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AK32" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>75</v>
@@ -5872,7 +5864,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5880,34 +5872,34 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F33" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G33" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="F33" t="s" s="2">
+      <c r="H33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I33" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G33" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J33" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="L33" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>75</v>
@@ -5917,7 +5909,7 @@
         <v>75</v>
       </c>
       <c r="R33" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>75</v>
@@ -5932,49 +5924,49 @@
         <v>75</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="X33" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="Y33" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="Y33" t="s" s="2">
+      <c r="Z33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE33" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="Z33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE33" t="s" s="2">
+      <c r="AF33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="AF33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>235</v>
-      </c>
       <c r="AK33" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>75</v>
@@ -5988,7 +5980,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5996,34 +5988,34 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F34" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G34" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="F34" t="s" s="2">
+      <c r="H34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I34" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G34" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H34" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I34" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J34" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>75</v>
@@ -6033,67 +6025,67 @@
         <v>75</v>
       </c>
       <c r="R34" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="S34" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE34" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="T34" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U34" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V34" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W34" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X34" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y34" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE34" t="s" s="2">
+      <c r="AF34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="AF34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
+      <c r="AK34" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="AK34" t="s" s="2">
+      <c r="AL34" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>75</v>
@@ -6104,7 +6096,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6112,31 +6104,31 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F35" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G35" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="F35" t="s" s="2">
+      <c r="H35" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I35" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G35" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H35" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J35" t="s" s="2">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6150,75 +6142,75 @@
         <v>75</v>
       </c>
       <c r="S35" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE35" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="T35" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U35" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V35" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W35" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X35" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y35" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z35" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>252</v>
-      </c>
       <c r="AF35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ35" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AK35" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="AK35" t="s" s="2">
+      <c r="AL35" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="AL35" t="s" s="2">
-        <v>256</v>
-      </c>
       <c r="AM35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6229,25 +6221,25 @@
         <v>76</v>
       </c>
       <c r="F36" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I36" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J36" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -6298,28 +6290,28 @@
         <v>75</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ36" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AK36" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="AK36" t="s" s="2">
+      <c r="AL36" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>75</v>
@@ -6330,7 +6322,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6341,28 +6333,28 @@
         <v>76</v>
       </c>
       <c r="F37" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I37" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G37" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J37" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6412,28 +6404,28 @@
         <v>75</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ37" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AK37" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="AK37" t="s" s="2">
+      <c r="AL37" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>75</v>
@@ -6444,7 +6436,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6455,106 +6447,106 @@
         <v>76</v>
       </c>
       <c r="F38" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H38" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G38" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H38" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="I38" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="L38" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="N38" t="s" s="2">
+      <c r="O38" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P38" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="O38" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P38" t="s" s="2">
+      <c r="Q38" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R38" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="Q38" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R38" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S38" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T38" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U38" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V38" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W38" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X38" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y38" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z38" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
+      <c r="AK38" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="AK38" t="s" s="2">
+      <c r="AL38" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="AL38" t="s" s="2">
+      <c r="AM38" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>75</v>
@@ -6562,7 +6554,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6582,22 +6574,22 @@
         <v>75</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>75</v>
@@ -6622,14 +6614,14 @@
         <v>75</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="X39" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="Y39" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="Y39" t="s" s="2">
-        <v>300</v>
-      </c>
       <c r="Z39" t="s" s="2">
         <v>75</v>
       </c>
@@ -6646,7 +6638,7 @@
         <v>75</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>76</v>
@@ -6658,19 +6650,19 @@
         <v>75</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ39" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="AK39" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>75</v>
@@ -6678,7 +6670,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6689,31 +6681,31 @@
         <v>76</v>
       </c>
       <c r="F40" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G40" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G40" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="H40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>75</v>
@@ -6762,39 +6754,39 @@
         <v>75</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ40" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AK40" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="AK40" t="s" s="2">
+      <c r="AL40" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="AL40" t="s" s="2">
+      <c r="AM40" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN40" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>312</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6817,19 +6809,19 @@
         <v>75</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>75</v>
@@ -6878,7 +6870,7 @@
         <v>75</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>76</v>
@@ -6890,13 +6882,13 @@
         <v>75</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>75</v>
@@ -6910,7 +6902,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6933,19 +6925,19 @@
         <v>75</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="K42" t="s" s="2">
+      <c r="L42" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>75</v>
@@ -6994,7 +6986,7 @@
         <v>75</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>76</v>
@@ -7003,19 +6995,19 @@
         <v>77</v>
       </c>
       <c r="AH42" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="AI42" t="s" s="2">
+      <c r="AK42" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="AJ42" t="s" s="2">
+      <c r="AL42" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>75</v>
@@ -7026,7 +7018,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7037,7 +7029,7 @@
         <v>76</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>75</v>
@@ -7049,7 +7041,7 @@
         <v>75</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="K43" t="s" s="2">
         <v>98</v>
@@ -7112,7 +7104,7 @@
         <v>76</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>75</v>
@@ -7138,7 +7130,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7252,7 +7244,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7263,25 +7255,25 @@
         <v>76</v>
       </c>
       <c r="F45" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G45" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G45" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="H45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -7308,52 +7300,52 @@
         <v>75</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="X45" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE45" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="Y45" t="s" s="2">
+      <c r="AF45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH45" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="Z45" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE45" t="s" s="2">
+      <c r="AI45" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="AF45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH45" t="s" s="2">
+      <c r="AK45" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="AI45" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
+      <c r="AL45" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>75</v>
@@ -7364,7 +7356,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7375,31 +7367,31 @@
         <v>76</v>
       </c>
       <c r="F46" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G46" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G46" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="H46" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>345</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>75</v>
@@ -7448,39 +7440,39 @@
         <v>75</v>
       </c>
       <c r="AE46" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AK46" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="AF46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
+      <c r="AL46" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN46" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>349</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7491,31 +7483,31 @@
         <v>76</v>
       </c>
       <c r="F47" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H47" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G47" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H47" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="I47" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>75</v>
@@ -7540,52 +7532,52 @@
         <v>75</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="X47" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE47" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="Y47" t="s" s="2">
+      <c r="AF47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="Z47" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE47" t="s" s="2">
+      <c r="AK47" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="AF47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
+      <c r="AL47" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>360</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>75</v>
@@ -7596,7 +7588,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7607,28 +7599,28 @@
         <v>76</v>
       </c>
       <c r="F48" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I48" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G48" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H48" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J48" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="K48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7678,19 +7670,19 @@
         <v>75</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>101</v>
@@ -7710,7 +7702,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7721,25 +7713,25 @@
         <v>76</v>
       </c>
       <c r="F49" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I49" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G49" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H49" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I49" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J49" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7790,28 +7782,28 @@
         <v>75</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>75</v>
@@ -7822,7 +7814,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7836,7 +7828,7 @@
         <v>77</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>75</v>
@@ -7845,19 +7837,19 @@
         <v>75</v>
       </c>
       <c r="J50" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="K50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>75</v>
@@ -7870,7 +7862,7 @@
         <v>75</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="T50" t="s" s="2">
         <v>75</v>
@@ -7906,7 +7898,7 @@
         <v>75</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>76</v>
@@ -7915,19 +7907,19 @@
         <v>77</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AI50" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AK50" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="AJ50" t="s" s="2">
+      <c r="AL50" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>75</v>
@@ -7938,7 +7930,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7949,7 +7941,7 @@
         <v>76</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>75</v>
@@ -7961,7 +7953,7 @@
         <v>75</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="K51" t="s" s="2">
         <v>98</v>
@@ -8024,7 +8016,7 @@
         <v>76</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>75</v>
@@ -8050,7 +8042,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8141,7 +8133,7 @@
         <v>77</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>112</v>
@@ -8150,7 +8142,7 @@
         <v>75</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>75</v>
@@ -8164,10 +8156,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C53" t="s" s="2">
         <v>103</v>
@@ -8177,7 +8169,7 @@
         <v>76</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>75</v>
@@ -8189,13 +8181,13 @@
         <v>75</v>
       </c>
       <c r="J53" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="K53" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>388</v>
       </c>
       <c r="M53" t="s" s="2">
         <v>107</v>
@@ -8257,7 +8249,7 @@
         <v>77</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>112</v>
@@ -8266,7 +8258,7 @@
         <v>75</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>75</v>
@@ -8280,7 +8272,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8291,31 +8283,31 @@
         <v>76</v>
       </c>
       <c r="F54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H54" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="I54" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>75</v>
@@ -8328,64 +8320,64 @@
         <v>75</v>
       </c>
       <c r="S54" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="Y54" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="T54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W54" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="X54" t="s" s="2">
+      <c r="Z54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE54" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="Y54" t="s" s="2">
+      <c r="AF54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="Z54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE54" t="s" s="2">
+      <c r="AK54" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AL54" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>400</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>75</v>
@@ -8396,7 +8388,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8407,28 +8399,28 @@
         <v>76</v>
       </c>
       <c r="F55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I55" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G55" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J55" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8442,61 +8434,61 @@
         <v>75</v>
       </c>
       <c r="S55" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="Y55" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="T55" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U55" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V55" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W55" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="X55" t="s" s="2">
+      <c r="Z55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE55" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="Y55" t="s" s="2">
+      <c r="AF55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="Z55" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA55" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>409</v>
-      </c>
       <c r="AK55" t="s" s="2">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>75</v>
@@ -8510,7 +8502,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8521,31 +8513,31 @@
         <v>76</v>
       </c>
       <c r="F56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I56" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J56" t="s" s="2">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="N56" t="s" s="2">
         <v>412</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>414</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>75</v>
@@ -8558,61 +8550,61 @@
         <v>75</v>
       </c>
       <c r="S56" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="T56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE56" t="s" s="2">
+      <c r="AK56" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>418</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>75</v>
@@ -8626,7 +8618,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8637,28 +8629,28 @@
         <v>76</v>
       </c>
       <c r="F57" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="G57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J57" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>421</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8672,7 +8664,7 @@
         <v>75</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="T57" t="s" s="2">
         <v>75</v>
@@ -8708,7 +8700,7 @@
         <v>75</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>76</v>
@@ -8717,30 +8709,30 @@
         <v>77</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ57" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AL57" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="AK57" t="s" s="2">
+      <c r="AM57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN57" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>429</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8751,7 +8743,7 @@
         <v>76</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>75</v>
@@ -8763,7 +8755,7 @@
         <v>75</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="K58" t="s" s="2">
         <v>98</v>
@@ -8826,7 +8818,7 @@
         <v>76</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>75</v>
@@ -8852,7 +8844,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8943,7 +8935,7 @@
         <v>77</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>112</v>
@@ -8952,7 +8944,7 @@
         <v>75</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>75</v>
@@ -8966,10 +8958,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C60" t="s" s="2">
         <v>103</v>
@@ -8979,7 +8971,7 @@
         <v>76</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>75</v>
@@ -8991,13 +8983,13 @@
         <v>75</v>
       </c>
       <c r="J60" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="K60" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>435</v>
       </c>
       <c r="M60" t="s" s="2">
         <v>107</v>
@@ -9059,7 +9051,7 @@
         <v>77</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>112</v>
@@ -9068,7 +9060,7 @@
         <v>75</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>75</v>
@@ -9082,10 +9074,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C61" t="s" s="2">
         <v>103</v>
@@ -9095,7 +9087,7 @@
         <v>76</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>75</v>
@@ -9107,13 +9099,13 @@
         <v>75</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>437</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="M61" t="s" s="2">
         <v>107</v>
@@ -9175,7 +9167,7 @@
         <v>77</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>112</v>
@@ -9184,7 +9176,7 @@
         <v>75</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>75</v>
@@ -9198,10 +9190,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C62" t="s" s="2">
         <v>103</v>
@@ -9211,7 +9203,7 @@
         <v>76</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>75</v>
@@ -9223,13 +9215,13 @@
         <v>75</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>441</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>443</v>
       </c>
       <c r="M62" t="s" s="2">
         <v>107</v>
@@ -9291,7 +9283,7 @@
         <v>77</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>112</v>
@@ -9300,7 +9292,7 @@
         <v>75</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>75</v>
@@ -9314,10 +9306,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C63" t="s" s="2">
         <v>103</v>
@@ -9327,7 +9319,7 @@
         <v>76</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>75</v>
@@ -9339,13 +9331,13 @@
         <v>75</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>445</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>447</v>
       </c>
       <c r="M63" t="s" s="2">
         <v>107</v>
@@ -9407,7 +9399,7 @@
         <v>77</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>112</v>
@@ -9416,7 +9408,7 @@
         <v>75</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>75</v>
@@ -9430,7 +9422,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9441,7 +9433,7 @@
         <v>76</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>75</v>
@@ -9453,13 +9445,13 @@
         <v>75</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9483,7 +9475,7 @@
         <v>75</v>
       </c>
       <c r="V64" t="s" s="2">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="W64" t="s" s="2">
         <v>75</v>
@@ -9510,13 +9502,13 @@
         <v>75</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>75</v>
@@ -9542,39 +9534,39 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I65" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G65" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H65" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I65" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J65" t="s" s="2">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -9588,79 +9580,79 @@
         <v>75</v>
       </c>
       <c r="S65" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="T65" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U65" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V65" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W65" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y65" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z65" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE65" t="s" s="2">
+      <c r="AK65" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="AF65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
+      <c r="AL65" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="AK65" t="s" s="2">
+      <c r="AM65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN65" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>462</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -9676,19 +9668,19 @@
         <v>75</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="M66" t="s" s="2">
         <v>465</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>467</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9702,61 +9694,61 @@
         <v>75</v>
       </c>
       <c r="S66" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
         <v>468</v>
       </c>
-      <c r="T66" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U66" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V66" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W66" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X66" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y66" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z66" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE66" t="s" s="2">
+      <c r="AK66" t="s" s="2">
         <v>469</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>471</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>75</v>
@@ -9770,39 +9762,39 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I67" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I67" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J67" t="s" s="2">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -9828,50 +9820,50 @@
         <v>75</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="X67" s="2"/>
       <c r="Y67" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
         <v>476</v>
       </c>
-      <c r="Z67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE67" t="s" s="2">
+      <c r="AK67" t="s" s="2">
         <v>477</v>
       </c>
-      <c r="AF67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
+      <c r="AL67" t="s" s="2">
         <v>478</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>480</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>75</v>
@@ -9882,39 +9874,39 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I68" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G68" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J68" t="s" s="2">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -9928,75 +9920,75 @@
         <v>75</v>
       </c>
       <c r="S68" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
         <v>485</v>
       </c>
-      <c r="T68" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U68" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V68" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W68" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE68" t="s" s="2">
+      <c r="AK68" t="s" s="2">
         <v>486</v>
       </c>
-      <c r="AF68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
+      <c r="AL68" t="s" s="2">
         <v>487</v>
       </c>
-      <c r="AK68" t="s" s="2">
+      <c r="AM68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN68" t="s" s="2">
         <v>488</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>490</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10007,28 +9999,28 @@
         <v>76</v>
       </c>
       <c r="F69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I69" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G69" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J69" t="s" s="2">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="M69" t="s" s="2">
         <v>492</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>494</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -10054,50 +10046,50 @@
         <v>75</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="X69" s="2"/>
       <c r="Y69" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
         <v>495</v>
       </c>
-      <c r="Z69" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE69" t="s" s="2">
+      <c r="AK69" t="s" s="2">
         <v>496</v>
       </c>
-      <c r="AF69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
+      <c r="AL69" t="s" s="2">
         <v>497</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>499</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>75</v>
@@ -10108,7 +10100,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10119,31 +10111,31 @@
         <v>76</v>
       </c>
       <c r="F70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I70" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J70" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="N70" t="s" s="2">
         <v>501</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>503</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>75</v>
@@ -10156,64 +10148,64 @@
         <v>75</v>
       </c>
       <c r="S70" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="T70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>506</v>
-      </c>
       <c r="AK70" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>75</v>
@@ -10224,7 +10216,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10235,7 +10227,7 @@
         <v>76</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>75</v>
@@ -10247,7 +10239,7 @@
         <v>75</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="K71" t="s" s="2">
         <v>98</v>
@@ -10310,7 +10302,7 @@
         <v>76</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>75</v>
@@ -10336,7 +10328,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10427,7 +10419,7 @@
         <v>77</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>112</v>
@@ -10436,7 +10428,7 @@
         <v>75</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>75</v>
@@ -10450,7 +10442,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10461,28 +10453,28 @@
         <v>76</v>
       </c>
       <c r="F73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I73" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J73" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>510</v>
       </c>
-      <c r="K73" t="s" s="2">
+      <c r="M73" t="s" s="2">
         <v>511</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>513</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
@@ -10532,25 +10524,25 @@
         <v>75</v>
       </c>
       <c r="AE73" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
         <v>514</v>
       </c>
-      <c r="AF73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH73" t="s" s="2">
+      <c r="AK73" t="s" s="2">
         <v>515</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>517</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>75</v>
@@ -10564,7 +10556,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10575,98 +10567,98 @@
         <v>76</v>
       </c>
       <c r="F74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I74" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J74" t="s" s="2">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="M74" t="s" s="2">
         <v>519</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>521</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>75</v>
       </c>
       <c r="P74" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="Q74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
         <v>522</v>
       </c>
-      <c r="Q74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE74" t="s" s="2">
+      <c r="AK74" t="s" s="2">
         <v>523</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>525</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>75</v>
@@ -10680,7 +10672,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10691,29 +10683,29 @@
         <v>76</v>
       </c>
       <c r="F75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I75" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J75" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" t="s" s="2">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>75</v>
@@ -10762,25 +10754,25 @@
         <v>75</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>101</v>
@@ -10794,7 +10786,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10817,19 +10809,19 @@
         <v>75</v>
       </c>
       <c r="J76" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>532</v>
       </c>
-      <c r="K76" t="s" s="2">
+      <c r="M76" t="s" s="2">
         <v>533</v>
       </c>
-      <c r="L76" t="s" s="2">
+      <c r="N76" t="s" s="2">
         <v>534</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>536</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>75</v>
@@ -10878,7 +10870,7 @@
         <v>75</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>76</v>
@@ -10890,13 +10882,13 @@
         <v>75</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>75</v>
@@ -10910,7 +10902,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10921,7 +10913,7 @@
         <v>76</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>75</v>
@@ -10933,7 +10925,7 @@
         <v>75</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="K77" t="s" s="2">
         <v>98</v>
@@ -10996,7 +10988,7 @@
         <v>76</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>75</v>
@@ -11022,7 +11014,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11136,11 +11128,11 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -11153,25 +11145,25 @@
         <v>75</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J79" t="s" s="2">
         <v>104</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="M79" t="s" s="2">
         <v>107</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>75</v>
@@ -11220,7 +11212,7 @@
         <v>75</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>76</v>
@@ -11238,7 +11230,7 @@
         <v>75</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>75</v>
@@ -11252,7 +11244,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11263,7 +11255,7 @@
         <v>76</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>75</v>
@@ -11275,17 +11267,17 @@
         <v>75</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" t="s" s="2">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>75</v>
@@ -11310,49 +11302,49 @@
         <v>75</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="X80" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK80" t="s" s="2">
         <v>549</v>
-      </c>
-      <c r="Y80" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>551</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>75</v>
@@ -11366,7 +11358,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11377,7 +11369,7 @@
         <v>76</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>75</v>
@@ -11389,17 +11381,17 @@
         <v>75</v>
       </c>
       <c r="J81" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>553</v>
-      </c>
-      <c r="K81" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>555</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" t="s" s="2">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>75</v>
@@ -11448,25 +11440,25 @@
         <v>75</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>75</v>
@@ -11480,7 +11472,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11503,17 +11495,17 @@
         <v>75</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" t="s" s="2">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>75</v>
@@ -11562,7 +11554,7 @@
         <v>75</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>76</v>
@@ -11574,13 +11566,13 @@
         <v>75</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>75</v>
@@ -11594,7 +11586,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11605,7 +11597,7 @@
         <v>76</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>75</v>
@@ -11617,17 +11609,17 @@
         <v>75</v>
       </c>
       <c r="J83" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="L83" t="s" s="2">
         <v>566</v>
-      </c>
-      <c r="K83" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>568</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" t="s" s="2">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>75</v>
@@ -11676,25 +11668,25 @@
         <v>75</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>75</v>
@@ -11708,7 +11700,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11731,17 +11723,17 @@
         <v>75</v>
       </c>
       <c r="J84" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="L84" t="s" s="2">
         <v>573</v>
-      </c>
-      <c r="K84" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>575</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" t="s" s="2">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>75</v>
@@ -11790,7 +11782,7 @@
         <v>75</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>76</v>
@@ -11802,7 +11794,7 @@
         <v>75</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>75</v>

--- a/StructureDefinition-mp4p-organization.xlsx
+++ b/StructureDefinition-mp4p-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T18:22:11+00:00</t>
+    <t>2022-11-28T18:36:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
